--- a/All_matched_old20.xlsx
+++ b/All_matched_old20.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,59 +450,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ihale</t>
+          <t>sanat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>vatan</t>
+          <t>tarif</t>
         </is>
       </c>
       <c r="D2">
-        <v>204</v>
+        <v>3121</v>
       </c>
       <c r="E2">
-        <v>9.269</v>
+        <v>141.8059</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>2485</v>
       </c>
       <c r="G2">
-        <v>0.0186</v>
+        <v>0.2717</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J2">
-        <v>944</v>
+        <v>2834</v>
       </c>
       <c r="K2">
-        <v>42.8916</v>
+        <v>128.7657</v>
       </c>
       <c r="L2">
-        <v>851</v>
+        <v>2611</v>
       </c>
       <c r="M2">
-        <v>0.093</v>
+        <v>0.2854</v>
       </c>
       <c r="N2">
         <v>5</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
         <v>1.5</v>
-      </c>
-      <c r="Q2">
-        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>organ</t>
+          <t>hayır</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>284</v>
+        <v>5416</v>
       </c>
       <c r="E3">
-        <v>12.9038</v>
+        <v>246.0816</v>
       </c>
       <c r="F3">
-        <v>249</v>
+        <v>4885</v>
       </c>
       <c r="G3">
-        <v>0.0272</v>
+        <v>0.534</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>1.7</v>
@@ -633,28 +633,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rektör</t>
+          <t>minik</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inşaat</t>
+          <t>siyah</t>
         </is>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>2916</v>
       </c>
       <c r="E5">
-        <v>6.2702</v>
+        <v>132.4915</v>
       </c>
       <c r="F5">
-        <v>104</v>
+        <v>2594</v>
       </c>
       <c r="G5">
-        <v>0.0114</v>
+        <v>0.2836</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="J5">
-        <v>432</v>
+        <v>2944</v>
       </c>
       <c r="K5">
-        <v>19.6284</v>
+        <v>133.7637</v>
       </c>
       <c r="L5">
-        <v>376</v>
+        <v>2527</v>
       </c>
       <c r="M5">
-        <v>0.0411</v>
+        <v>0.2763</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="P5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sahil</t>
+          <t>hesap</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -703,16 +703,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>481</v>
+        <v>1567</v>
       </c>
       <c r="E6">
-        <v>21.8547</v>
+        <v>71.1983</v>
       </c>
       <c r="F6">
-        <v>443</v>
+        <v>1388</v>
       </c>
       <c r="G6">
-        <v>0.0484</v>
+        <v>0.1517</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="P6">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <v>1.7</v>
@@ -877,59 +877,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kanal</t>
+          <t>mevcut</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kulüp</t>
+          <t>hizmet</t>
         </is>
       </c>
       <c r="D9">
-        <v>721</v>
+        <v>3007</v>
       </c>
       <c r="E9">
-        <v>32.7594</v>
+        <v>136.6262</v>
       </c>
       <c r="F9">
-        <v>603</v>
+        <v>2842</v>
       </c>
       <c r="G9">
-        <v>0.0659</v>
+        <v>0.3107</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="J9">
-        <v>649</v>
+        <v>3023</v>
       </c>
       <c r="K9">
-        <v>29.488</v>
+        <v>137.3531</v>
       </c>
       <c r="L9">
-        <v>467</v>
+        <v>2689</v>
       </c>
       <c r="M9">
-        <v>0.0511</v>
+        <v>0.294</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="P9">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
@@ -938,7 +938,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rekor</t>
+          <t>paket</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="D10">
-        <v>202</v>
+        <v>1532</v>
       </c>
       <c r="E10">
-        <v>9.178100000000001</v>
+        <v>69.608</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>1392</v>
       </c>
       <c r="G10">
-        <v>0.0202</v>
+        <v>0.1522</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
         <v>1.35</v>
@@ -999,25 +999,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nüfus</t>
+          <t>ilave</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sanık</t>
+          <t>yazar</t>
         </is>
       </c>
       <c r="D11">
-        <v>698</v>
+        <v>3173</v>
       </c>
       <c r="E11">
-        <v>31.7144</v>
+        <v>144.1685</v>
       </c>
       <c r="F11">
-        <v>588</v>
+        <v>2619</v>
       </c>
       <c r="G11">
-        <v>0.0643</v>
+        <v>0.2863</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="J11">
-        <v>768</v>
+        <v>3175</v>
       </c>
       <c r="K11">
-        <v>34.8949</v>
+        <v>144.2594</v>
       </c>
       <c r="L11">
-        <v>699</v>
+        <v>2877</v>
       </c>
       <c r="M11">
-        <v>0.0764</v>
+        <v>0.3145</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="P11">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>geçmiş</t>
+          <t>bardak</t>
         </is>
       </c>
       <c r="D12">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="J12">
-        <v>4195</v>
+        <v>1728</v>
       </c>
       <c r="K12">
-        <v>190.6042</v>
+        <v>78.51349999999999</v>
       </c>
       <c r="L12">
-        <v>4039</v>
+        <v>1569</v>
       </c>
       <c r="M12">
-        <v>0.4415</v>
+        <v>0.1715</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>veri</t>
+          <t>etki</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="D13">
-        <v>795</v>
+        <v>1234</v>
       </c>
       <c r="E13">
-        <v>36.1216</v>
+        <v>56.0681</v>
       </c>
       <c r="F13">
-        <v>636</v>
+        <v>1169</v>
       </c>
       <c r="G13">
-        <v>0.06950000000000001</v>
+        <v>0.1278</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q13">
         <v>1.65</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>afet</t>
+          <t>esas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1191,16 +1191,16 @@
         </is>
       </c>
       <c r="D14">
-        <v>237</v>
+        <v>1965</v>
       </c>
       <c r="E14">
-        <v>10.7683</v>
+        <v>89.2818</v>
       </c>
       <c r="F14">
-        <v>208</v>
+        <v>1795</v>
       </c>
       <c r="G14">
-        <v>0.0227</v>
+        <v>0.1962</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="P14">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q14">
         <v>1.55</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>oran</t>
+          <t>konu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="D15">
-        <v>353</v>
+        <v>5400</v>
       </c>
       <c r="E15">
-        <v>16.0389</v>
+        <v>245.3546</v>
       </c>
       <c r="F15">
-        <v>317</v>
+        <v>5110</v>
       </c>
       <c r="G15">
-        <v>0.0347</v>
+        <v>0.5586</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>döviz</t>
+          <t>nokta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>2085</v>
       </c>
       <c r="E16">
-        <v>8.1785</v>
+        <v>94.7341</v>
       </c>
       <c r="F16">
-        <v>142</v>
+        <v>1939</v>
       </c>
       <c r="G16">
-        <v>0.0155</v>
+        <v>0.212</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="P16">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Q16">
         <v>1.85</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fidan</t>
+          <t>cevap</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="D17">
-        <v>223</v>
+        <v>5232</v>
       </c>
       <c r="E17">
-        <v>10.1322</v>
+        <v>237.7213</v>
       </c>
       <c r="F17">
-        <v>187</v>
+        <v>4822</v>
       </c>
       <c r="G17">
-        <v>0.0204</v>
+        <v>0.5271</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="P17">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
         <v>1.4</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hesap</t>
+          <t>dünya</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1435,16 +1435,16 @@
         </is>
       </c>
       <c r="D18">
-        <v>1567</v>
+        <v>11614</v>
       </c>
       <c r="E18">
-        <v>71.1983</v>
+        <v>527.6941</v>
       </c>
       <c r="F18">
-        <v>1388</v>
+        <v>10092</v>
       </c>
       <c r="G18">
-        <v>0.1517</v>
+        <v>1.1033</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nefes</t>
+          <t>yavaş</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1496,16 +1496,16 @@
         </is>
       </c>
       <c r="D19">
-        <v>2871</v>
+        <v>5087</v>
       </c>
       <c r="E19">
-        <v>130.4469</v>
+        <v>231.1331</v>
       </c>
       <c r="F19">
-        <v>2553</v>
+        <v>2886</v>
       </c>
       <c r="G19">
-        <v>0.2791</v>
+        <v>0.3155</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="P19">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q19">
         <v>1.65</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bugün</t>
+          <t>tarih</t>
         </is>
       </c>
       <c r="D20">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="J20">
-        <v>13879</v>
+        <v>2806</v>
       </c>
       <c r="K20">
-        <v>630.6067</v>
+        <v>127.4935</v>
       </c>
       <c r="L20">
-        <v>12842</v>
+        <v>2483</v>
       </c>
       <c r="M20">
-        <v>1.4039</v>
+        <v>0.2714</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="21">
@@ -1609,28 +1609,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>radyo</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>milyon</t>
         </is>
       </c>
       <c r="D21">
-        <v>763</v>
+        <v>4154</v>
       </c>
       <c r="E21">
-        <v>34.6677</v>
+        <v>188.7413</v>
       </c>
       <c r="F21">
-        <v>636</v>
+        <v>3788</v>
       </c>
       <c r="G21">
-        <v>0.06950000000000001</v>
+        <v>0.4141</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1638,19 +1638,19 @@
         </is>
       </c>
       <c r="J21">
-        <v>876</v>
+        <v>3936</v>
       </c>
       <c r="K21">
-        <v>39.802</v>
+        <v>178.8362</v>
       </c>
       <c r="L21">
-        <v>778</v>
+        <v>2958</v>
       </c>
       <c r="M21">
-        <v>0.0851</v>
+        <v>0.3234</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="P21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q21">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="22">
@@ -1670,59 +1670,59 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>işgal</t>
+          <t>ödül</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>yakın</t>
+          <t>rüya</t>
         </is>
       </c>
       <c r="D22">
-        <v>890</v>
+        <v>1063</v>
       </c>
       <c r="E22">
-        <v>40.4381</v>
+        <v>48.2985</v>
       </c>
       <c r="F22">
-        <v>801</v>
+        <v>926</v>
       </c>
       <c r="G22">
-        <v>0.0876</v>
+        <v>0.1012</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J22">
-        <v>7990</v>
+        <v>1062</v>
       </c>
       <c r="K22">
-        <v>363.0339</v>
+        <v>48.2531</v>
       </c>
       <c r="L22">
-        <v>7595</v>
+        <v>937</v>
       </c>
       <c r="M22">
-        <v>0.8303</v>
+        <v>0.1024</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="23">
@@ -1731,28 +1731,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gemi</t>
+          <t>hasta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>faiz</t>
+          <t>kahve</t>
         </is>
       </c>
       <c r="D23">
-        <v>629</v>
+        <v>2431</v>
       </c>
       <c r="E23">
-        <v>28.5793</v>
+        <v>110.455</v>
       </c>
       <c r="F23">
-        <v>544</v>
+        <v>2140</v>
       </c>
       <c r="G23">
-        <v>0.0595</v>
+        <v>0.2339</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1760,19 +1760,19 @@
         </is>
       </c>
       <c r="J23">
-        <v>462</v>
+        <v>2634</v>
       </c>
       <c r="K23">
-        <v>20.9914</v>
+        <v>119.6785</v>
       </c>
       <c r="L23">
-        <v>322</v>
+        <v>2283</v>
       </c>
       <c r="M23">
-        <v>0.0352</v>
+        <v>0.2496</v>
       </c>
       <c r="N23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="P23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="24">
@@ -1975,28 +1975,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fiyat</t>
+          <t>saniye</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>karar</t>
+          <t>yorgun</t>
         </is>
       </c>
       <c r="D27">
-        <v>821</v>
+        <v>1088</v>
       </c>
       <c r="E27">
-        <v>37.303</v>
+        <v>49.4344</v>
       </c>
       <c r="F27">
-        <v>726</v>
+        <v>984</v>
       </c>
       <c r="G27">
-        <v>0.0794</v>
+        <v>0.1076</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2004,19 +2004,19 @@
         </is>
       </c>
       <c r="J27">
-        <v>8108</v>
+        <v>1153</v>
       </c>
       <c r="K27">
-        <v>368.3954</v>
+        <v>52.3877</v>
       </c>
       <c r="L27">
-        <v>7436</v>
+        <v>1108</v>
       </c>
       <c r="M27">
-        <v>0.8129</v>
+        <v>0.1211</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="P27">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="28">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>yedek</t>
+          <t>bahar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2045,16 +2045,16 @@
         </is>
       </c>
       <c r="D28">
-        <v>825</v>
+        <v>1837</v>
       </c>
       <c r="E28">
-        <v>37.4847</v>
+        <v>83.46599999999999</v>
       </c>
       <c r="F28">
-        <v>732</v>
+        <v>1655</v>
       </c>
       <c r="G28">
-        <v>0.08</v>
+        <v>0.1809</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="P28">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q28">
         <v>1.9</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>insan</t>
+          <t>nasip</t>
         </is>
       </c>
       <c r="D29">
@@ -2126,16 +2126,16 @@
         </is>
       </c>
       <c r="J29">
-        <v>17821</v>
+        <v>1069</v>
       </c>
       <c r="K29">
-        <v>809.7156</v>
+        <v>48.5711</v>
       </c>
       <c r="L29">
-        <v>15619</v>
+        <v>1042</v>
       </c>
       <c r="M29">
-        <v>1.7075</v>
+        <v>0.1139</v>
       </c>
       <c r="N29">
         <v>5</v>
@@ -2149,7 +2149,7 @@
         <v>1.9</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rapor</t>
+          <t>bölge</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2167,16 +2167,16 @@
         </is>
       </c>
       <c r="D30">
-        <v>703</v>
+        <v>1283</v>
       </c>
       <c r="E30">
-        <v>31.9415</v>
+        <v>58.2944</v>
       </c>
       <c r="F30">
-        <v>617</v>
+        <v>1123</v>
       </c>
       <c r="G30">
-        <v>0.0675</v>
+        <v>0.1228</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="P30">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -2219,59 +2219,59 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>yorum</t>
+          <t>meşhur</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sahip</t>
+          <t>parlak</t>
         </is>
       </c>
       <c r="D31">
-        <v>3801</v>
+        <v>1092</v>
       </c>
       <c r="E31">
-        <v>172.7024</v>
+        <v>49.6161</v>
       </c>
       <c r="F31">
-        <v>3473</v>
+        <v>1057</v>
       </c>
       <c r="G31">
-        <v>0.3797</v>
+        <v>0.1156</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="J31">
-        <v>10887</v>
+        <v>1142</v>
       </c>
       <c r="K31">
-        <v>494.6621</v>
+        <v>51.888</v>
       </c>
       <c r="L31">
-        <v>9847</v>
+        <v>1088</v>
       </c>
       <c r="M31">
-        <v>1.0765</v>
+        <v>0.1189</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="P31">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="Q31">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="32">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iptal</t>
+          <t>mesaj</t>
         </is>
       </c>
       <c r="D32">
@@ -2309,16 +2309,16 @@
         </is>
       </c>
       <c r="J32">
-        <v>793</v>
+        <v>1604</v>
       </c>
       <c r="K32">
-        <v>36.0308</v>
+        <v>72.8794</v>
       </c>
       <c r="L32">
-        <v>725</v>
+        <v>1386</v>
       </c>
       <c r="M32">
-        <v>0.0793</v>
+        <v>0.1515</v>
       </c>
       <c r="N32">
         <v>5</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>burun</t>
+          <t>fazla</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="D34">
-        <v>897</v>
+        <v>18293</v>
       </c>
       <c r="E34">
-        <v>40.7561</v>
+        <v>831.1614</v>
       </c>
       <c r="F34">
-        <v>759</v>
+        <v>16694</v>
       </c>
       <c r="G34">
-        <v>0.083</v>
+        <v>1.825</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bahar</t>
+          <t>temel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2472,16 +2472,16 @@
         </is>
       </c>
       <c r="D35">
-        <v>1837</v>
+        <v>4231</v>
       </c>
       <c r="E35">
-        <v>83.46599999999999</v>
+        <v>192.2399</v>
       </c>
       <c r="F35">
-        <v>1655</v>
+        <v>3851</v>
       </c>
       <c r="G35">
-        <v>0.1809</v>
+        <v>0.421</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="P35">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q35">
         <v>1.85</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>aile</t>
+          <t>ilan</t>
         </is>
       </c>
       <c r="D36">
@@ -2553,16 +2553,16 @@
         </is>
       </c>
       <c r="J36">
-        <v>3655</v>
+        <v>1579</v>
       </c>
       <c r="K36">
-        <v>166.0687</v>
+        <v>71.7435</v>
       </c>
       <c r="L36">
-        <v>3126</v>
+        <v>1499</v>
       </c>
       <c r="M36">
-        <v>0.3417</v>
+        <v>0.1639</v>
       </c>
       <c r="N36">
         <v>4</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>adet</t>
+          <t>ikna</t>
         </is>
       </c>
       <c r="D37">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="J37">
-        <v>4367</v>
+        <v>1276</v>
       </c>
       <c r="K37">
-        <v>198.4192</v>
+        <v>57.9764</v>
       </c>
       <c r="L37">
-        <v>3768</v>
+        <v>1173</v>
       </c>
       <c r="M37">
-        <v>0.4119</v>
+        <v>0.1282</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -2637,7 +2637,7 @@
         <v>1.45</v>
       </c>
       <c r="Q37">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="38">
@@ -2646,59 +2646,59 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tatil</t>
+          <t>hava</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>hayır</t>
+          <t>adet</t>
         </is>
       </c>
       <c r="D38">
-        <v>2152</v>
+        <v>4975</v>
       </c>
       <c r="E38">
-        <v>97.7783</v>
+        <v>226.0443</v>
       </c>
       <c r="F38">
-        <v>1865</v>
+        <v>4398</v>
       </c>
       <c r="G38">
-        <v>0.2039</v>
+        <v>0.4808</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J38">
-        <v>5416</v>
+        <v>4367</v>
       </c>
       <c r="K38">
-        <v>246.0816</v>
+        <v>198.4192</v>
       </c>
       <c r="L38">
-        <v>4885</v>
+        <v>3768</v>
       </c>
       <c r="M38">
-        <v>0.534</v>
+        <v>0.4119</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P38">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="39">
@@ -2707,59 +2707,59 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>iade</t>
+          <t>meslek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gece</t>
+          <t>şahane</t>
         </is>
       </c>
       <c r="D39">
-        <v>350</v>
+        <v>1082</v>
       </c>
       <c r="E39">
-        <v>15.9026</v>
+        <v>49.1618</v>
       </c>
       <c r="F39">
-        <v>328</v>
+        <v>976</v>
       </c>
       <c r="G39">
-        <v>0.0359</v>
+        <v>0.1067</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J39">
-        <v>10125</v>
+        <v>1153</v>
       </c>
       <c r="K39">
-        <v>460.0398</v>
+        <v>52.3877</v>
       </c>
       <c r="L39">
-        <v>8865</v>
+        <v>1108</v>
       </c>
       <c r="M39">
-        <v>0.9691</v>
+        <v>0.1211</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P39">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="40">
@@ -2768,28 +2768,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nokta</t>
+          <t>hayvan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>cevap</t>
+          <t>tahmin</t>
         </is>
       </c>
       <c r="D40">
-        <v>2085</v>
+        <v>2363</v>
       </c>
       <c r="E40">
-        <v>94.7341</v>
+        <v>107.3653</v>
       </c>
       <c r="F40">
-        <v>1939</v>
+        <v>1894</v>
       </c>
       <c r="G40">
-        <v>0.212</v>
+        <v>0.2071</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="J40">
-        <v>5232</v>
+        <v>2353</v>
       </c>
       <c r="K40">
-        <v>237.7213</v>
+        <v>106.911</v>
       </c>
       <c r="L40">
-        <v>4822</v>
+        <v>2273</v>
       </c>
       <c r="M40">
-        <v>0.5271</v>
+        <v>0.2485</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>1.5</v>
       </c>
       <c r="Q40">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="41">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>arazi</t>
+          <t>tatil</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2838,16 +2838,16 @@
         </is>
       </c>
       <c r="D41">
-        <v>316</v>
+        <v>2152</v>
       </c>
       <c r="E41">
-        <v>14.3578</v>
+        <v>97.7783</v>
       </c>
       <c r="F41">
-        <v>270</v>
+        <v>1865</v>
       </c>
       <c r="G41">
-        <v>0.0295</v>
+        <v>0.2039</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="P41">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q41">
         <v>1.4</v>
@@ -2890,59 +2890,59 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>etki</t>
+          <t>hamile</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>anne</t>
+          <t>yaygın</t>
         </is>
       </c>
       <c r="D42">
-        <v>1234</v>
+        <v>1075</v>
       </c>
       <c r="E42">
-        <v>56.0681</v>
+        <v>48.8437</v>
       </c>
       <c r="F42">
-        <v>1169</v>
+        <v>877</v>
       </c>
       <c r="G42">
-        <v>0.1278</v>
+        <v>0.0959</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="J42">
-        <v>8179</v>
+        <v>1061</v>
       </c>
       <c r="K42">
-        <v>371.6213</v>
+        <v>48.2076</v>
       </c>
       <c r="L42">
-        <v>6883</v>
+        <v>1019</v>
       </c>
       <c r="M42">
-        <v>0.7524999999999999</v>
+        <v>0.1114</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="P42">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q42">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="43">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mesai</t>
+          <t>hakim</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2960,16 +2960,16 @@
         </is>
       </c>
       <c r="D43">
-        <v>334</v>
+        <v>1677</v>
       </c>
       <c r="E43">
-        <v>15.1756</v>
+        <v>76.1962</v>
       </c>
       <c r="F43">
-        <v>312</v>
+        <v>1559</v>
       </c>
       <c r="G43">
-        <v>0.0341</v>
+        <v>0.1704</v>
       </c>
       <c r="H43">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="P43">
-        <v>1.85</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <v>1.55</v>
@@ -3012,28 +3012,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ücret</t>
+          <t>zengin</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>dünya</t>
+          <t>modern</t>
         </is>
       </c>
       <c r="D44">
-        <v>734</v>
+        <v>2193</v>
       </c>
       <c r="E44">
-        <v>33.35</v>
+        <v>99.6412</v>
       </c>
       <c r="F44">
-        <v>634</v>
+        <v>2015</v>
       </c>
       <c r="G44">
-        <v>0.0693</v>
+        <v>0.2203</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3041,19 +3041,19 @@
         </is>
       </c>
       <c r="J44">
-        <v>11614</v>
+        <v>2326</v>
       </c>
       <c r="K44">
-        <v>527.6941</v>
+        <v>105.6842</v>
       </c>
       <c r="L44">
-        <v>10092</v>
+        <v>2031</v>
       </c>
       <c r="M44">
-        <v>1.1033</v>
+        <v>0.222</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="P44">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Q44">
         <v>1.85</v>
@@ -3073,56 +3073,56 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>zafer</t>
+          <t>ürün</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>bölge</t>
+          <t>taze</t>
         </is>
       </c>
       <c r="D45">
-        <v>722</v>
+        <v>2268</v>
       </c>
       <c r="E45">
-        <v>32.8048</v>
+        <v>103.0489</v>
       </c>
       <c r="F45">
-        <v>668</v>
+        <v>1954</v>
       </c>
       <c r="G45">
-        <v>0.073</v>
+        <v>0.2136</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J45">
-        <v>1283</v>
+        <v>2268</v>
       </c>
       <c r="K45">
-        <v>58.2944</v>
+        <v>103.0489</v>
       </c>
       <c r="L45">
-        <v>1123</v>
+        <v>2062</v>
       </c>
       <c r="M45">
-        <v>0.1228</v>
+        <v>0.2254</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="Q45">
         <v>1.65</v>
@@ -3134,59 +3134,59 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>firma</t>
+          <t>geniş</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>kaçak</t>
+          <t>hafif</t>
         </is>
       </c>
       <c r="D46">
-        <v>704</v>
+        <v>3380</v>
       </c>
       <c r="E46">
-        <v>31.987</v>
+        <v>153.5738</v>
       </c>
       <c r="F46">
-        <v>618</v>
+        <v>3185</v>
       </c>
       <c r="G46">
-        <v>0.06759999999999999</v>
+        <v>0.3482</v>
       </c>
       <c r="H46">
         <v>5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J46">
-        <v>406</v>
+        <v>3355</v>
       </c>
       <c r="K46">
-        <v>18.447</v>
+        <v>152.4379</v>
       </c>
       <c r="L46">
-        <v>354</v>
+        <v>3101</v>
       </c>
       <c r="M46">
-        <v>0.0387</v>
+        <v>0.339</v>
       </c>
       <c r="N46">
         <v>5</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P46">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="47">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>imkan</t>
+          <t>medya</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="D47">
-        <v>554</v>
+        <v>1784</v>
       </c>
       <c r="E47">
-        <v>25.1716</v>
+        <v>81.0579</v>
       </c>
       <c r="F47">
-        <v>536</v>
+        <v>1495</v>
       </c>
       <c r="G47">
-        <v>0.0586</v>
+        <v>0.1634</v>
       </c>
       <c r="H47">
         <v>5</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q47">
         <v>1.35</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>inanç</t>
+          <t>beyaz</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="D48">
-        <v>742</v>
+        <v>5517</v>
       </c>
       <c r="E48">
-        <v>33.7135</v>
+        <v>250.6706</v>
       </c>
       <c r="F48">
-        <v>672</v>
+        <v>4788</v>
       </c>
       <c r="G48">
-        <v>0.0735</v>
+        <v>0.5234</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="P48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q48">
         <v>1.5</v>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>memur</t>
+          <t>parti</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3326,16 +3326,16 @@
         </is>
       </c>
       <c r="D49">
-        <v>550</v>
+        <v>2613</v>
       </c>
       <c r="E49">
-        <v>24.9898</v>
+        <v>118.7244</v>
       </c>
       <c r="F49">
-        <v>458</v>
+        <v>2059</v>
       </c>
       <c r="G49">
-        <v>0.0501</v>
+        <v>0.2251</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>yardım</t>
+          <t>koruma</t>
         </is>
       </c>
       <c r="D51">
@@ -3468,16 +3468,16 @@
         </is>
       </c>
       <c r="J51">
-        <v>4031</v>
+        <v>1187</v>
       </c>
       <c r="K51">
-        <v>183.1527</v>
+        <v>53.9326</v>
       </c>
       <c r="L51">
-        <v>3554</v>
+        <v>1066</v>
       </c>
       <c r="M51">
-        <v>0.3885</v>
+        <v>0.1165</v>
       </c>
       <c r="N51">
         <v>6</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>esnaf</t>
+          <t>madde</t>
         </is>
       </c>
       <c r="D52">
@@ -3529,16 +3529,16 @@
         </is>
       </c>
       <c r="J52">
-        <v>315</v>
+        <v>3793</v>
       </c>
       <c r="K52">
-        <v>14.3124</v>
+        <v>172.3389</v>
       </c>
       <c r="L52">
-        <v>284</v>
+        <v>3389</v>
       </c>
       <c r="M52">
-        <v>0.031</v>
+        <v>0.3705</v>
       </c>
       <c r="N52">
         <v>5</v>
@@ -3552,7 +3552,7 @@
         <v>1.6</v>
       </c>
       <c r="Q52">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="53">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ihbar</t>
+          <t>idare</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3570,16 +3570,16 @@
         </is>
       </c>
       <c r="D53">
-        <v>207</v>
+        <v>1222</v>
       </c>
       <c r="E53">
-        <v>9.4053</v>
+        <v>55.5228</v>
       </c>
       <c r="F53">
-        <v>187</v>
+        <v>1145</v>
       </c>
       <c r="G53">
-        <v>0.0204</v>
+        <v>0.1252</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="P53">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q53">
         <v>1.6</v>
@@ -3622,28 +3622,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>tören</t>
+          <t>ilginç</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>hakim</t>
+          <t>siyasi</t>
         </is>
       </c>
       <c r="D54">
-        <v>234</v>
+        <v>2803</v>
       </c>
       <c r="E54">
-        <v>10.632</v>
+        <v>127.3572</v>
       </c>
       <c r="F54">
-        <v>202</v>
+        <v>2690</v>
       </c>
       <c r="G54">
-        <v>0.0221</v>
+        <v>0.2941</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3651,19 +3651,19 @@
         </is>
       </c>
       <c r="J54">
-        <v>1677</v>
+        <v>2909</v>
       </c>
       <c r="K54">
-        <v>76.1962</v>
+        <v>132.1734</v>
       </c>
       <c r="L54">
-        <v>1559</v>
+        <v>2445</v>
       </c>
       <c r="M54">
-        <v>0.1704</v>
+        <v>0.2673</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="P54">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="55">
@@ -3683,59 +3683,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>esas</t>
+          <t>resim</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>konu</t>
+          <t>garip</t>
         </is>
       </c>
       <c r="D55">
-        <v>1965</v>
+        <v>2506</v>
       </c>
       <c r="E55">
-        <v>89.2818</v>
+        <v>113.8627</v>
       </c>
       <c r="F55">
-        <v>1795</v>
+        <v>2188</v>
       </c>
       <c r="G55">
-        <v>0.1962</v>
+        <v>0.2392</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J55">
-        <v>5400</v>
+        <v>2567</v>
       </c>
       <c r="K55">
-        <v>245.3546</v>
+        <v>116.6343</v>
       </c>
       <c r="L55">
-        <v>5110</v>
+        <v>2355</v>
       </c>
       <c r="M55">
-        <v>0.5586</v>
+        <v>0.2574</v>
       </c>
       <c r="N55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P55">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q55">
-        <v>1</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="56">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>galip</t>
+          <t>kitap</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3753,16 +3753,16 @@
         </is>
       </c>
       <c r="D56">
-        <v>476</v>
+        <v>8359</v>
       </c>
       <c r="E56">
-        <v>21.6276</v>
+        <v>379.7998</v>
       </c>
       <c r="F56">
-        <v>435</v>
+        <v>6786</v>
       </c>
       <c r="G56">
-        <v>0.0476</v>
+        <v>0.7418</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="P56">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Q56">
         <v>1.4</v>
@@ -3805,25 +3805,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tablo</t>
+          <t>altın</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hakem</t>
+          <t>iddia</t>
         </is>
       </c>
       <c r="D57">
-        <v>559</v>
+        <v>2385</v>
       </c>
       <c r="E57">
-        <v>25.3987</v>
+        <v>108.3649</v>
       </c>
       <c r="F57">
-        <v>520</v>
+        <v>2017</v>
       </c>
       <c r="G57">
-        <v>0.0568</v>
+        <v>0.2205</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="J57">
-        <v>603</v>
+        <v>2430</v>
       </c>
       <c r="K57">
-        <v>27.3979</v>
+        <v>110.4096</v>
       </c>
       <c r="L57">
-        <v>473</v>
+        <v>2295</v>
       </c>
       <c r="M57">
-        <v>0.0517</v>
+        <v>0.2509</v>
       </c>
       <c r="N57">
         <v>5</v>
@@ -3854,10 +3854,10 @@
         </is>
       </c>
       <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
         <v>1.85</v>
-      </c>
-      <c r="Q57">
-        <v>1.65</v>
       </c>
     </row>
     <row r="58">
@@ -3866,28 +3866,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>saray</t>
+          <t>akıl</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>daire</t>
+          <t>mavi</t>
         </is>
       </c>
       <c r="D58">
-        <v>481</v>
+        <v>2208</v>
       </c>
       <c r="E58">
-        <v>21.8547</v>
+        <v>100.3228</v>
       </c>
       <c r="F58">
-        <v>427</v>
+        <v>2004</v>
       </c>
       <c r="G58">
-        <v>0.0467</v>
+        <v>0.2191</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="J58">
-        <v>621</v>
+        <v>2206</v>
       </c>
       <c r="K58">
-        <v>28.2158</v>
+        <v>100.2319</v>
       </c>
       <c r="L58">
-        <v>503</v>
+        <v>1934</v>
       </c>
       <c r="M58">
-        <v>0.055</v>
+        <v>0.2114</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="P58">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="59">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teşvik</t>
+          <t>sağlam</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="D59">
-        <v>932</v>
+        <v>1818</v>
       </c>
       <c r="E59">
-        <v>42.3464</v>
+        <v>82.6027</v>
       </c>
       <c r="F59">
-        <v>867</v>
+        <v>1720</v>
       </c>
       <c r="G59">
-        <v>0.0948</v>
+        <v>0.188</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="P59">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q59">
         <v>1.7</v>
@@ -3988,25 +3988,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>uyarı</t>
+          <t>bölüm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>parti</t>
+          <t>selam</t>
         </is>
       </c>
       <c r="D60">
-        <v>454</v>
+        <v>1910</v>
       </c>
       <c r="E60">
-        <v>20.628</v>
+        <v>86.78279999999999</v>
       </c>
       <c r="F60">
-        <v>430</v>
+        <v>1605</v>
       </c>
       <c r="G60">
-        <v>0.047</v>
+        <v>0.1755</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -4017,16 +4017,16 @@
         </is>
       </c>
       <c r="J60">
-        <v>2613</v>
+        <v>1868</v>
       </c>
       <c r="K60">
-        <v>118.7244</v>
+        <v>84.8745</v>
       </c>
       <c r="L60">
-        <v>2059</v>
+        <v>1764</v>
       </c>
       <c r="M60">
-        <v>0.2251</v>
+        <v>0.1928</v>
       </c>
       <c r="N60">
         <v>5</v>
@@ -4037,10 +4037,10 @@
         </is>
       </c>
       <c r="P60">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q60">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="61">
@@ -4110,59 +4110,59 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mesaj</t>
+          <t>köpek</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>erkek</t>
+          <t>sabit</t>
         </is>
       </c>
       <c r="D62">
-        <v>1604</v>
+        <v>1044</v>
       </c>
       <c r="E62">
-        <v>72.8794</v>
+        <v>47.4352</v>
       </c>
       <c r="F62">
-        <v>1386</v>
+        <v>901</v>
       </c>
       <c r="G62">
-        <v>0.1515</v>
+        <v>0.0985</v>
       </c>
       <c r="H62">
         <v>5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J62">
-        <v>6188</v>
+        <v>1046</v>
       </c>
       <c r="K62">
-        <v>281.1582</v>
+        <v>47.5261</v>
       </c>
       <c r="L62">
-        <v>5195</v>
+        <v>915</v>
       </c>
       <c r="M62">
-        <v>0.5679</v>
+        <v>0.1</v>
       </c>
       <c r="N62">
         <v>5</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P62">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q62">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="63">
@@ -4171,59 +4171,59 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>divan</t>
+          <t>doğu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>temel</t>
+          <t>ateş</t>
         </is>
       </c>
       <c r="D63">
-        <v>212</v>
+        <v>2105</v>
       </c>
       <c r="E63">
-        <v>9.632400000000001</v>
+        <v>95.6429</v>
       </c>
       <c r="F63">
-        <v>186</v>
+        <v>1823</v>
       </c>
       <c r="G63">
-        <v>0.0203</v>
+        <v>0.1993</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J63">
-        <v>4231</v>
+        <v>2108</v>
       </c>
       <c r="K63">
-        <v>192.2399</v>
+        <v>95.7792</v>
       </c>
       <c r="L63">
-        <v>3851</v>
+        <v>1803</v>
       </c>
       <c r="M63">
-        <v>0.421</v>
+        <v>0.1971</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="Q63">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="64">
@@ -4232,59 +4232,59 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ikna</t>
+          <t>yıldız</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>kaya</t>
+          <t>tedavi</t>
         </is>
       </c>
       <c r="D64">
-        <v>1276</v>
+        <v>1775</v>
       </c>
       <c r="E64">
-        <v>57.9764</v>
+        <v>80.649</v>
       </c>
       <c r="F64">
-        <v>1173</v>
+        <v>1532</v>
       </c>
       <c r="G64">
-        <v>0.1282</v>
+        <v>0.1675</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J64">
-        <v>916</v>
+        <v>1865</v>
       </c>
       <c r="K64">
-        <v>41.6194</v>
+        <v>84.73820000000001</v>
       </c>
       <c r="L64">
-        <v>757</v>
+        <v>1597</v>
       </c>
       <c r="M64">
-        <v>0.0828</v>
+        <v>0.1746</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P64">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="65">
@@ -4293,25 +4293,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tanık</t>
+          <t>cümle</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>madde</t>
+          <t>sakin</t>
         </is>
       </c>
       <c r="D65">
-        <v>847</v>
+        <v>1911</v>
       </c>
       <c r="E65">
-        <v>38.4843</v>
+        <v>86.8283</v>
       </c>
       <c r="F65">
-        <v>794</v>
+        <v>1765</v>
       </c>
       <c r="G65">
-        <v>0.0868</v>
+        <v>0.193</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -4322,16 +4322,16 @@
         </is>
       </c>
       <c r="J65">
-        <v>3793</v>
+        <v>1855</v>
       </c>
       <c r="K65">
-        <v>172.3389</v>
+        <v>84.2838</v>
       </c>
       <c r="L65">
-        <v>3389</v>
+        <v>1635</v>
       </c>
       <c r="M65">
-        <v>0.3705</v>
+        <v>0.1787</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -4342,10 +4342,10 @@
         </is>
       </c>
       <c r="P65">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="Q65">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="66">
@@ -4354,28 +4354,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>maden</t>
+          <t>sohbet</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>forma</t>
+          <t>sultan</t>
         </is>
       </c>
       <c r="D66">
-        <v>402</v>
+        <v>1864</v>
       </c>
       <c r="E66">
-        <v>18.2653</v>
+        <v>84.69280000000001</v>
       </c>
       <c r="F66">
-        <v>339</v>
+        <v>1685</v>
       </c>
       <c r="G66">
-        <v>0.0371</v>
+        <v>0.1842</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="J66">
-        <v>719</v>
+        <v>1756</v>
       </c>
       <c r="K66">
-        <v>32.6685</v>
+        <v>79.78570000000001</v>
       </c>
       <c r="L66">
-        <v>597</v>
+        <v>1368</v>
       </c>
       <c r="M66">
-        <v>0.0653</v>
+        <v>0.1496</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="P66">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q66">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="67">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>veda</t>
+          <t>ilaç</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4424,16 +4424,16 @@
         </is>
       </c>
       <c r="D67">
-        <v>717</v>
+        <v>1366</v>
       </c>
       <c r="E67">
-        <v>32.5776</v>
+        <v>62.0656</v>
       </c>
       <c r="F67">
-        <v>686</v>
+        <v>1215</v>
       </c>
       <c r="G67">
-        <v>0.075</v>
+        <v>0.1328</v>
       </c>
       <c r="H67">
         <v>4</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P67">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -4537,25 +4537,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>düzey</t>
+          <t>dilim</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>medya</t>
+          <t>aktif</t>
         </is>
       </c>
       <c r="D69">
-        <v>481</v>
+        <v>1061</v>
       </c>
       <c r="E69">
-        <v>21.8547</v>
+        <v>48.2076</v>
       </c>
       <c r="F69">
-        <v>462</v>
+        <v>949</v>
       </c>
       <c r="G69">
-        <v>0.0505</v>
+        <v>0.1037</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -4566,16 +4566,16 @@
         </is>
       </c>
       <c r="J69">
-        <v>1784</v>
+        <v>1062</v>
       </c>
       <c r="K69">
-        <v>81.0579</v>
+        <v>48.2531</v>
       </c>
       <c r="L69">
-        <v>1495</v>
+        <v>986</v>
       </c>
       <c r="M69">
-        <v>0.1634</v>
+        <v>0.1078</v>
       </c>
       <c r="N69">
         <v>5</v>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="P69">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>1.9</v>
@@ -4598,59 +4598,59 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>paket</t>
+          <t>bayram</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>durum</t>
+          <t>klasik</t>
         </is>
       </c>
       <c r="D70">
-        <v>1532</v>
+        <v>1948</v>
       </c>
       <c r="E70">
-        <v>69.608</v>
+        <v>88.5094</v>
       </c>
       <c r="F70">
-        <v>1392</v>
+        <v>1648</v>
       </c>
       <c r="G70">
-        <v>0.1522</v>
+        <v>0.1802</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J70">
-        <v>6783</v>
+        <v>1871</v>
       </c>
       <c r="K70">
-        <v>308.1926</v>
+        <v>85.0108</v>
       </c>
       <c r="L70">
-        <v>6431</v>
+        <v>1734</v>
       </c>
       <c r="M70">
-        <v>0.703</v>
+        <v>0.1896</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P70">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4659,59 +4659,59 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vakit</t>
+          <t>araba</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bilim</t>
+          <t>proje</t>
         </is>
       </c>
       <c r="D71">
-        <v>3476</v>
+        <v>1704</v>
       </c>
       <c r="E71">
-        <v>157.9357</v>
+        <v>77.423</v>
       </c>
       <c r="F71">
-        <v>3298</v>
+        <v>1485</v>
       </c>
       <c r="G71">
-        <v>0.3605</v>
+        <v>0.1623</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J71">
-        <v>2828</v>
+        <v>1689</v>
       </c>
       <c r="K71">
-        <v>128.4931</v>
+        <v>76.7415</v>
       </c>
       <c r="L71">
-        <v>2382</v>
+        <v>1402</v>
       </c>
       <c r="M71">
-        <v>0.2604</v>
+        <v>0.1533</v>
       </c>
       <c r="N71">
         <v>5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P71">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="72">
@@ -4720,56 +4720,56 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>veli</t>
+          <t>vakit</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ilan</t>
+          <t>bilim</t>
         </is>
       </c>
       <c r="D72">
-        <v>612</v>
+        <v>3476</v>
       </c>
       <c r="E72">
-        <v>27.8069</v>
+        <v>157.9357</v>
       </c>
       <c r="F72">
-        <v>525</v>
+        <v>3298</v>
       </c>
       <c r="G72">
-        <v>0.0574</v>
+        <v>0.3605</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="J72">
-        <v>1579</v>
+        <v>2828</v>
       </c>
       <c r="K72">
-        <v>71.7435</v>
+        <v>128.4931</v>
       </c>
       <c r="L72">
-        <v>1499</v>
+        <v>2382</v>
       </c>
       <c r="M72">
-        <v>0.1639</v>
+        <v>0.2604</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ihlal</t>
+          <t>komik</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4790,16 +4790,16 @@
         </is>
       </c>
       <c r="D73">
-        <v>298</v>
+        <v>1617</v>
       </c>
       <c r="E73">
-        <v>13.5399</v>
+        <v>73.4701</v>
       </c>
       <c r="F73">
-        <v>275</v>
+        <v>1506</v>
       </c>
       <c r="G73">
-        <v>0.0301</v>
+        <v>0.1646</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -4903,25 +4903,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>savcı</t>
+          <t>çorba</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>tarih</t>
+          <t>limon</t>
         </is>
       </c>
       <c r="D75">
-        <v>464</v>
+        <v>1674</v>
       </c>
       <c r="E75">
-        <v>21.0823</v>
+        <v>76.0599</v>
       </c>
       <c r="F75">
-        <v>415</v>
+        <v>1513</v>
       </c>
       <c r="G75">
-        <v>0.0454</v>
+        <v>0.1654</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="J75">
-        <v>2806</v>
+        <v>1658</v>
       </c>
       <c r="K75">
-        <v>127.4935</v>
+        <v>75.3329</v>
       </c>
       <c r="L75">
-        <v>2483</v>
+        <v>1481</v>
       </c>
       <c r="M75">
-        <v>0.2714</v>
+        <v>0.1619</v>
       </c>
       <c r="N75">
         <v>5</v>
@@ -4952,10 +4952,10 @@
         </is>
       </c>
       <c r="P75">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="Q75">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="76">
@@ -4964,59 +4964,59 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>otel</t>
+          <t>millet</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>kaza</t>
+          <t>sinema</t>
         </is>
       </c>
       <c r="D76">
-        <v>923</v>
+        <v>1658</v>
       </c>
       <c r="E76">
-        <v>41.9375</v>
+        <v>75.3329</v>
       </c>
       <c r="F76">
-        <v>803</v>
+        <v>1508</v>
       </c>
       <c r="G76">
-        <v>0.0878</v>
+        <v>0.1649</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J76">
-        <v>740</v>
+        <v>1575</v>
       </c>
       <c r="K76">
-        <v>33.6227</v>
+        <v>71.56180000000001</v>
       </c>
       <c r="L76">
-        <v>679</v>
+        <v>1304</v>
       </c>
       <c r="M76">
-        <v>0.0742</v>
+        <v>0.1426</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P76">
+        <v>1.7</v>
+      </c>
+      <c r="Q76">
         <v>1.8</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5025,59 +5025,59 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>hain</t>
+          <t>başarı</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>saat</t>
+          <t>gazete</t>
         </is>
       </c>
       <c r="D77">
-        <v>367</v>
+        <v>1398</v>
       </c>
       <c r="E77">
-        <v>16.675</v>
+        <v>63.5196</v>
       </c>
       <c r="F77">
-        <v>343</v>
+        <v>1300</v>
       </c>
       <c r="G77">
-        <v>0.0375</v>
+        <v>0.1421</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J77">
-        <v>10461</v>
+        <v>1402</v>
       </c>
       <c r="K77">
-        <v>475.3064</v>
+        <v>63.7013</v>
       </c>
       <c r="L77">
-        <v>8994</v>
+        <v>1270</v>
       </c>
       <c r="M77">
-        <v>0.9832</v>
+        <v>0.1388</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P77">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q77">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78">
@@ -5086,25 +5086,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mimar</t>
+          <t>maddi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hayat</t>
+          <t>roman</t>
         </is>
       </c>
       <c r="D78">
-        <v>407</v>
+        <v>1397</v>
       </c>
       <c r="E78">
-        <v>18.4925</v>
+        <v>63.4741</v>
       </c>
       <c r="F78">
-        <v>358</v>
+        <v>1263</v>
       </c>
       <c r="G78">
-        <v>0.0391</v>
+        <v>0.1381</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="J78">
-        <v>7922</v>
+        <v>1499</v>
       </c>
       <c r="K78">
-        <v>359.9443</v>
+        <v>68.1086</v>
       </c>
       <c r="L78">
-        <v>7314</v>
+        <v>1281</v>
       </c>
       <c r="M78">
-        <v>0.7996</v>
+        <v>0.14</v>
       </c>
       <c r="N78">
         <v>5</v>
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="P78">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="Q78">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="79">
@@ -5147,28 +5147,28 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ortam</t>
+          <t>ilişki</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>kitap</t>
+          <t>adalet</t>
         </is>
       </c>
       <c r="D79">
-        <v>918</v>
+        <v>1675</v>
       </c>
       <c r="E79">
-        <v>41.7103</v>
+        <v>76.1054</v>
       </c>
       <c r="F79">
-        <v>879</v>
+        <v>1524</v>
       </c>
       <c r="G79">
-        <v>0.0961</v>
+        <v>0.1666</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="J79">
-        <v>8359</v>
+        <v>1611</v>
       </c>
       <c r="K79">
-        <v>379.7998</v>
+        <v>73.19750000000001</v>
       </c>
       <c r="L79">
-        <v>6786</v>
+        <v>1388</v>
       </c>
       <c r="M79">
-        <v>0.7418</v>
+        <v>0.1517</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -5196,10 +5196,10 @@
         </is>
       </c>
       <c r="P79">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="80">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>lise</t>
+          <t>ufak</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5217,16 +5217,16 @@
         </is>
       </c>
       <c r="D80">
-        <v>888</v>
+        <v>3252</v>
       </c>
       <c r="E80">
-        <v>40.3472</v>
+        <v>147.758</v>
       </c>
       <c r="F80">
-        <v>816</v>
+        <v>2980</v>
       </c>
       <c r="G80">
-        <v>0.0892</v>
+        <v>0.3258</v>
       </c>
       <c r="H80">
         <v>4</v>
@@ -5269,59 +5269,59 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bahçe</t>
+          <t>ulusal</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>kurum</t>
+          <t>hikaye</t>
         </is>
       </c>
       <c r="D81">
-        <v>753</v>
+        <v>1551</v>
       </c>
       <c r="E81">
-        <v>34.2133</v>
+        <v>70.4713</v>
       </c>
       <c r="F81">
-        <v>674</v>
+        <v>1355</v>
       </c>
       <c r="G81">
-        <v>0.0737</v>
+        <v>0.1481</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J81">
-        <v>986</v>
+        <v>1555</v>
       </c>
       <c r="K81">
-        <v>44.7999</v>
+        <v>70.65300000000001</v>
       </c>
       <c r="L81">
-        <v>882</v>
+        <v>1405</v>
       </c>
       <c r="M81">
-        <v>0.0964</v>
+        <v>0.1536</v>
       </c>
       <c r="N81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="82">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>basit</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5339,16 +5339,16 @@
         </is>
       </c>
       <c r="D82">
-        <v>284</v>
+        <v>3385</v>
       </c>
       <c r="E82">
-        <v>12.9038</v>
+        <v>153.801</v>
       </c>
       <c r="F82">
-        <v>253</v>
+        <v>3177</v>
       </c>
       <c r="G82">
-        <v>0.0277</v>
+        <v>0.3473</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="P82">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -5391,59 +5391,59 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bina</t>
+          <t>merkez</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>onur</t>
+          <t>reklam</t>
         </is>
       </c>
       <c r="D83">
-        <v>823</v>
+        <v>1445</v>
       </c>
       <c r="E83">
-        <v>37.3939</v>
+        <v>65.6551</v>
       </c>
       <c r="F83">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="G83">
-        <v>0.0793</v>
+        <v>0.1372</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J83">
-        <v>737</v>
+        <v>1565</v>
       </c>
       <c r="K83">
-        <v>33.4864</v>
+        <v>71.1074</v>
       </c>
       <c r="L83">
-        <v>652</v>
+        <v>1244</v>
       </c>
       <c r="M83">
-        <v>0.0713</v>
+        <v>0.136</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P83">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q83">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="84">
@@ -5452,59 +5452,59 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ihraç</t>
+          <t>üretim</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ekip</t>
+          <t>milyar</t>
         </is>
       </c>
       <c r="D84">
-        <v>228</v>
+        <v>1593</v>
       </c>
       <c r="E84">
-        <v>10.3594</v>
+        <v>72.3796</v>
       </c>
       <c r="F84">
-        <v>210</v>
+        <v>1283</v>
       </c>
       <c r="G84">
-        <v>0.023</v>
+        <v>0.1403</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>notharmonic</t>
+          <t>harmonic</t>
         </is>
       </c>
       <c r="J84">
-        <v>806</v>
+        <v>1496</v>
       </c>
       <c r="K84">
-        <v>36.6214</v>
+        <v>67.9723</v>
       </c>
       <c r="L84">
-        <v>739</v>
+        <v>1078</v>
       </c>
       <c r="M84">
-        <v>0.0808</v>
+        <v>0.1178</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>harmonic</t>
+          <t>notharmonic</t>
         </is>
       </c>
       <c r="P84">
+        <v>1.6</v>
+      </c>
+      <c r="Q84">
         <v>1.85</v>
-      </c>
-      <c r="Q84">
-        <v>1.25</v>
       </c>
     </row>
     <row r="85">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cami</t>
+          <t>sade</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5522,16 +5522,16 @@
         </is>
       </c>
       <c r="D85">
-        <v>592</v>
+        <v>1193</v>
       </c>
       <c r="E85">
-        <v>26.8981</v>
+        <v>54.2052</v>
       </c>
       <c r="F85">
-        <v>493</v>
+        <v>1114</v>
       </c>
       <c r="G85">
-        <v>0.0539</v>
+        <v>0.1218</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -5562,10 +5562,376 @@
         </is>
       </c>
       <c r="P85">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q85">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>küçük</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>bugün</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>14048</v>
+      </c>
+      <c r="E86">
+        <v>638.2854</v>
+      </c>
+      <c r="F86">
+        <v>12467</v>
+      </c>
+      <c r="G86">
+        <v>1.3629</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="J86">
+        <v>13879</v>
+      </c>
+      <c r="K86">
+        <v>630.6067</v>
+      </c>
+      <c r="L86">
+        <v>12842</v>
+      </c>
+      <c r="M86">
+        <v>1.4039</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="P86">
+        <v>1.75</v>
+      </c>
+      <c r="Q86">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ülke</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>aile</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>3121</v>
+      </c>
+      <c r="E87">
+        <v>141.8059</v>
+      </c>
+      <c r="F87">
+        <v>2801</v>
+      </c>
+      <c r="G87">
+        <v>0.3062</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="J87">
+        <v>3655</v>
+      </c>
+      <c r="K87">
+        <v>166.0687</v>
+      </c>
+      <c r="L87">
+        <v>3126</v>
+      </c>
+      <c r="M87">
+        <v>0.3417</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="P87">
+        <v>1.65</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>harika</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>yardım</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>4682</v>
+      </c>
+      <c r="E88">
+        <v>212.7315</v>
+      </c>
+      <c r="F88">
+        <v>4422</v>
+      </c>
+      <c r="G88">
+        <v>0.4834</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="J88">
+        <v>4031</v>
+      </c>
+      <c r="K88">
+        <v>183.1527</v>
+      </c>
+      <c r="L88">
+        <v>3554</v>
+      </c>
+      <c r="M88">
+        <v>0.3885</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="P88">
+        <v>1.9</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>gerçek</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>tekrar</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>8983</v>
+      </c>
+      <c r="E89">
+        <v>408.1519</v>
+      </c>
+      <c r="F89">
+        <v>8058</v>
+      </c>
+      <c r="G89">
+        <v>0.8809</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="J89">
+        <v>10788</v>
+      </c>
+      <c r="K89">
+        <v>490.1639</v>
+      </c>
+      <c r="L89">
+        <v>9352</v>
+      </c>
+      <c r="M89">
+        <v>1.0224</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="P89">
+        <v>1.7</v>
+      </c>
+      <c r="Q89">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>mümkün</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>dikkat</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>6604</v>
+      </c>
+      <c r="E90">
+        <v>300.0596</v>
+      </c>
+      <c r="F90">
+        <v>6264</v>
+      </c>
+      <c r="G90">
+        <v>0.6848</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="J90">
+        <v>6230</v>
+      </c>
+      <c r="K90">
+        <v>283.0665</v>
+      </c>
+      <c r="L90">
+        <v>5888</v>
+      </c>
+      <c r="M90">
+        <v>0.6437</v>
+      </c>
+      <c r="N90">
+        <v>6</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="P90">
+        <v>1.9</v>
+      </c>
+      <c r="Q90">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>yalnız</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>dakika</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>5891</v>
+      </c>
+      <c r="E91">
+        <v>267.6637</v>
+      </c>
+      <c r="F91">
+        <v>5440</v>
+      </c>
+      <c r="G91">
+        <v>0.5947</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>harmonic</t>
+        </is>
+      </c>
+      <c r="J91">
+        <v>5891</v>
+      </c>
+      <c r="K91">
+        <v>267.6637</v>
+      </c>
+      <c r="L91">
+        <v>5207</v>
+      </c>
+      <c r="M91">
+        <v>0.5692</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>notharmonic</t>
+        </is>
+      </c>
+      <c r="P91">
+        <v>1.6</v>
+      </c>
+      <c r="Q91">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
